--- a/2-modèle G modifié/calibration/3_Modèle et Mesure/résultats Modèle et Mesure (à compléter).xlsx
+++ b/2-modèle G modifié/calibration/3_Modèle et Mesure/résultats Modèle et Mesure (à compléter).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emile\Desktop\Supaero_3A_2023-2024\projet_recherche\travail_concret_projet\2-modèle G modifié\calibration\3_Modèle et Mesure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7DC04A-6A3E-42C1-86D4-24893BFB684C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458F4C5A-889A-4881-9D6B-932B5F47C151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4335" yWindow="1275" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <author>tc={0DFCE49C-7690-4AE4-96FB-DBFAC21B363B}</author>
   </authors>
   <commentList>
-    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{46725640-A735-4286-AB11-646940EFABD6}">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{46725640-A735-4286-AB11-646940EFABD6}">
       <text>
         <t>[Commentaire à thread]
 Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
@@ -54,7 +54,7 @@
     Alpha fixé</t>
       </text>
     </comment>
-    <comment ref="S2" authorId="1" shapeId="0" xr:uid="{916DAD81-62D4-44C8-9C03-00351CBD98A4}">
+    <comment ref="V2" authorId="1" shapeId="0" xr:uid="{916DAD81-62D4-44C8-9C03-00351CBD98A4}">
       <text>
         <t xml:space="preserve">[Commentaire à thread]
 Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
@@ -63,7 +63,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{29C8BBEF-8DFB-4DF3-836E-883A6329CA3F}">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{29C8BBEF-8DFB-4DF3-836E-883A6329CA3F}">
       <text>
         <t>[Commentaire à thread]
 Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
@@ -71,7 +71,7 @@
     alpha_fixé_exp</t>
       </text>
     </comment>
-    <comment ref="S3" authorId="3" shapeId="0" xr:uid="{EA203736-0918-4AD3-9B3E-462C3CD8D44E}">
+    <comment ref="V3" authorId="3" shapeId="0" xr:uid="{EA203736-0918-4AD3-9B3E-462C3CD8D44E}">
       <text>
         <t>[Commentaire à thread]
 Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
@@ -79,7 +79,7 @@
     Alpha_fixé_gamma_exp</t>
       </text>
     </comment>
-    <comment ref="O4" authorId="4" shapeId="0" xr:uid="{0C5B92A6-9C87-4FE1-9AA2-67303C0D7C75}">
+    <comment ref="R4" authorId="4" shapeId="0" xr:uid="{0C5B92A6-9C87-4FE1-9AA2-67303C0D7C75}">
       <text>
         <t>[Commentaire à thread]
 Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
@@ -87,7 +87,7 @@
     alpha_fixé_beta_exp</t>
       </text>
     </comment>
-    <comment ref="S4" authorId="5" shapeId="0" xr:uid="{0DFCE49C-7690-4AE4-96FB-DBFAC21B363B}">
+    <comment ref="V4" authorId="5" shapeId="0" xr:uid="{0DFCE49C-7690-4AE4-96FB-DBFAC21B363B}">
       <text>
         <t xml:space="preserve">[Commentaire à thread]
 Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>alpha</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t>alpha_fixé_gamma</t>
+  </si>
+  <si>
+    <t>H0</t>
+  </si>
+  <si>
+    <t>alpha_fixé_gamma_H0</t>
   </si>
 </sst>
 </file>
@@ -475,23 +481,23 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="O2" dT="2023-12-13T13:13:08.05" personId="{B3F4CE26-5016-4E84-A601-70D34CCB54B6}" id="{46725640-A735-4286-AB11-646940EFABD6}">
+  <threadedComment ref="R2" dT="2023-12-13T13:13:08.05" personId="{B3F4CE26-5016-4E84-A601-70D34CCB54B6}" id="{46725640-A735-4286-AB11-646940EFABD6}">
     <text>Alpha fixé</text>
   </threadedComment>
-  <threadedComment ref="S2" dT="2023-12-13T13:13:24.09" personId="{B3F4CE26-5016-4E84-A601-70D34CCB54B6}" id="{916DAD81-62D4-44C8-9C03-00351CBD98A4}">
+  <threadedComment ref="V2" dT="2023-12-13T13:13:24.09" personId="{B3F4CE26-5016-4E84-A601-70D34CCB54B6}" id="{916DAD81-62D4-44C8-9C03-00351CBD98A4}">
     <text xml:space="preserve">alpha fixé et gamma à optimiser
 </text>
   </threadedComment>
-  <threadedComment ref="O3" dT="2023-12-13T13:13:51.34" personId="{B3F4CE26-5016-4E84-A601-70D34CCB54B6}" id="{29C8BBEF-8DFB-4DF3-836E-883A6329CA3F}">
+  <threadedComment ref="R3" dT="2023-12-13T13:13:51.34" personId="{B3F4CE26-5016-4E84-A601-70D34CCB54B6}" id="{29C8BBEF-8DFB-4DF3-836E-883A6329CA3F}">
     <text>alpha_fixé_exp</text>
   </threadedComment>
-  <threadedComment ref="S3" dT="2023-12-13T13:15:01.34" personId="{B3F4CE26-5016-4E84-A601-70D34CCB54B6}" id="{EA203736-0918-4AD3-9B3E-462C3CD8D44E}">
+  <threadedComment ref="V3" dT="2023-12-13T13:15:01.34" personId="{B3F4CE26-5016-4E84-A601-70D34CCB54B6}" id="{EA203736-0918-4AD3-9B3E-462C3CD8D44E}">
     <text>Alpha_fixé_gamma_exp</text>
   </threadedComment>
-  <threadedComment ref="O4" dT="2023-12-13T13:23:48.62" personId="{B3F4CE26-5016-4E84-A601-70D34CCB54B6}" id="{0C5B92A6-9C87-4FE1-9AA2-67303C0D7C75}">
+  <threadedComment ref="R4" dT="2023-12-13T13:23:48.62" personId="{B3F4CE26-5016-4E84-A601-70D34CCB54B6}" id="{0C5B92A6-9C87-4FE1-9AA2-67303C0D7C75}">
     <text>alpha_fixé_beta_exp</text>
   </threadedComment>
-  <threadedComment ref="S4" dT="2023-12-13T13:22:28.87" personId="{B3F4CE26-5016-4E84-A601-70D34CCB54B6}" id="{0DFCE49C-7690-4AE4-96FB-DBFAC21B363B}">
+  <threadedComment ref="V4" dT="2023-12-13T13:22:28.87" personId="{B3F4CE26-5016-4E84-A601-70D34CCB54B6}" id="{0DFCE49C-7690-4AE4-96FB-DBFAC21B363B}">
     <text xml:space="preserve">alpha_fixé et (beta,gamma) à optim
 </text>
   </threadedComment>
@@ -500,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,12 +520,13 @@
     <col min="12" max="12" width="26.5703125" customWidth="1"/>
     <col min="13" max="13" width="11.28515625" customWidth="1"/>
     <col min="15" max="15" width="19.85546875" customWidth="1"/>
+    <col min="18" max="18" width="17.140625" customWidth="1"/>
     <col min="19" max="19" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -528,7 +535,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -537,7 +544,7 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I1" t="s">
         <v>1</v>
@@ -546,155 +553,264 @@
         <v>2</v>
       </c>
       <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>7</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>9</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="E2">
+      <c r="H2">
         <v>4.8470000000000004</v>
       </c>
-      <c r="F2">
-        <f>ABS(E2-4.96700000000008)</f>
+      <c r="I2">
+        <f>ABS(H2-4.96700000000008)</f>
         <v>0.12000000000007915</v>
       </c>
-      <c r="G2">
-        <f>ABS(E2-4.727)</f>
+      <c r="J2">
+        <f>ABS(H2-4.727)</f>
         <v>0.12000000000000011</v>
       </c>
-      <c r="K2">
+      <c r="N2">
         <v>2168.3486379577498</v>
       </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <f>K2+L2*2</f>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f>N2+O2*2</f>
         <v>2170.3486379577498</v>
       </c>
-      <c r="O2">
+      <c r="R2">
         <v>3789.4436791828398</v>
       </c>
-      <c r="P2">
+      <c r="S2">
         <v>0</v>
       </c>
-      <c r="Q2">
-        <f>O2+2*P2</f>
+      <c r="T2">
+        <f>R2+2*S2</f>
         <v>3789.4436791828398</v>
       </c>
-      <c r="S2">
+      <c r="V2">
         <v>1524.4584535804599</v>
       </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <f>S2+2*T2</f>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <f>V2+2*W2</f>
         <v>1526.4584535804599</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>-5.29099999999994</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>11</v>
       </c>
-      <c r="K3">
+      <c r="N3">
         <v>2217.6371974864801</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <f>K3+L3*2</f>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <f>N3+O3*2</f>
         <v>2219.6371974864801</v>
       </c>
-      <c r="O3">
+      <c r="R3">
         <v>4607.3793492222803</v>
       </c>
-      <c r="P3">
+      <c r="S3">
         <v>0</v>
       </c>
-      <c r="Q3">
-        <f>O3+2*P3</f>
+      <c r="T3">
+        <f>R3+2*S3</f>
         <v>4607.3793492222803</v>
       </c>
-      <c r="S3">
+      <c r="V3">
         <v>1524.4942170785901</v>
       </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <f>S3+2*T3</f>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <f>V3+2*W3</f>
         <v>1526.4942170785901</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="K4" t="s">
+      <c r="N4" t="s">
         <v>15</v>
       </c>
-      <c r="L4">
+      <c r="O4">
         <v>2</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
         <v>15</v>
       </c>
-      <c r="O4">
+      <c r="R4">
         <v>1536.6936363135401</v>
       </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <f>O4+P4*2</f>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <f>R4+S4*2</f>
         <v>1538.6936363135401</v>
       </c>
-      <c r="S4">
+      <c r="V4">
         <v>1524.3</v>
       </c>
-      <c r="T4">
+      <c r="W4">
         <v>2</v>
       </c>
-      <c r="U4">
-        <f>S4+2*T4</f>
+      <c r="X4">
+        <f>V4+2*W4</f>
         <v>1528.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>67.12</v>
+      </c>
+      <c r="C5">
+        <f>ABS(B5-67.3999999999998)</f>
+        <v>0.27999999999980218</v>
+      </c>
+      <c r="D5">
+        <f>ABS(B5-66.7999999999999)</f>
+        <v>0.32000000000010687</v>
+      </c>
+      <c r="E5">
+        <v>0.192</v>
+      </c>
+      <c r="H5">
+        <v>-0.54500000000000004</v>
+      </c>
+      <c r="I5">
+        <f>ABS(H5-(-0.200000000000017))</f>
+        <v>0.34499999999998304</v>
+      </c>
+      <c r="J5">
+        <f>ABS(H5-(-0.900000000000014))</f>
+        <v>0.35500000000001397</v>
+      </c>
+      <c r="N5">
+        <v>1523.00785</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <f>N5+2*O5</f>
+        <v>1527.00785</v>
+      </c>
+      <c r="R5">
+        <v>1528.5330347676099</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <f>R5+2*S5</f>
+        <v>1530.5330347676099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>67.459999999999994</v>
+      </c>
+      <c r="C6">
+        <f>ABS(B6-67.8100000000003)</f>
+        <v>0.35000000000030695</v>
+      </c>
+      <c r="D6">
+        <f>ABS(B6-67.12)</f>
+        <v>0.3399999999999892</v>
+      </c>
+      <c r="E6">
+        <v>0.18</v>
+      </c>
+      <c r="H6">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="I6">
+        <f>ABS(H6-(-0.179999999999999))</f>
+        <v>0.37000000000000105</v>
+      </c>
+      <c r="J6">
+        <f>ABS(H6-(-0.900000000000014))</f>
+        <v>0.35000000000001397</v>
+      </c>
+      <c r="N6">
+        <v>1522.9064612582399</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <f>N6+2*O6</f>
+        <v>1526.9064612582399</v>
+      </c>
+      <c r="R6">
+        <v>1527.94275272145</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <f>R6+2*S6</f>
+        <v>1529.94275272145</v>
       </c>
     </row>
   </sheetData>
